--- a/zss.test/src/test/java/org/zkoss/zss/issue/book/772-long-text-pdf.xlsx
+++ b/zss.test/src/test/java/org/zkoss/zss/issue/book/772-long-text-pdf.xlsx
@@ -51,7 +51,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -59,15 +59,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,28 +403,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
+    <row r="1" spans="1:7" ht="15" customHeight="1">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
     </row>
-    <row r="4" spans="1:2" ht="90">
+    <row r="4" spans="1:7" ht="90">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
